--- a/Config_Report.xlsx
+++ b/Config_Report.xlsx
@@ -446,12 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>TimeValue, AuditValue</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>

--- a/Config_Report.xlsx
+++ b/Config_Report.xlsx
@@ -446,7 +446,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TimeValue, AuditValue</t>
         </is>
       </c>
     </row>

--- a/Config_Report.xlsx
+++ b/Config_Report.xlsx
@@ -446,7 +446,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TimeValue</t>
         </is>
       </c>
     </row>

--- a/Config_Report.xlsx
+++ b/Config_Report.xlsx
@@ -446,12 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>TimeValue</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
